--- a/chauffeurs.xlsx
+++ b/chauffeurs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://delijn-my.sharepoint.com/personal/29076_delijn_be/Documents/vuilbak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6BCC06E-F167-44FC-ABA6-ED57068F2D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{A6BCC06E-F167-44FC-ABA6-ED57068F2D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05D998E9-EE37-4FD9-B62B-8422603E28C2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30960" windowHeight="17628" xr2:uid="{B5704D3B-9390-405A-AEDE-CAF688DD5E6B}"/>
   </bookViews>
@@ -3594,12 +3594,26 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="SAPMemberCell" xfId="1" xr:uid="{4A35B5CF-A7F6-4DA9-8AA9-17B13901ECB3}"/>
@@ -3608,11 +3622,11 @@
   <dxfs count="2">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3961,22 +3975,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC7859D-1E14-4084-BAFB-CA6F655C4CDB}">
   <dimension ref="A1:D590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
+      <selection activeCell="G570" sqref="G570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
@@ -3987,10 +4002,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>594</v>
       </c>
       <c r="C2" t="s">
@@ -3998,10 +4013,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>595</v>
       </c>
       <c r="C3" t="s">
@@ -4009,10 +4024,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>596</v>
       </c>
       <c r="C4" t="s">
@@ -4020,10 +4035,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>597</v>
       </c>
       <c r="C5" t="s">
@@ -4031,10 +4046,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>598</v>
       </c>
       <c r="C6" t="s">
@@ -4042,10 +4057,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>599</v>
       </c>
       <c r="C7" t="s">
@@ -4053,10 +4068,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>600</v>
       </c>
       <c r="C8" t="s">
@@ -4064,10 +4079,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>601</v>
       </c>
       <c r="C9" t="s">
@@ -4075,10 +4090,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>602</v>
       </c>
       <c r="C10" t="s">
@@ -4086,10 +4101,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>603</v>
       </c>
       <c r="C11" t="s">
@@ -4097,10 +4112,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>604</v>
       </c>
       <c r="C12" t="s">
@@ -4108,10 +4123,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>605</v>
       </c>
       <c r="C13" t="s">
@@ -4119,10 +4134,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>606</v>
       </c>
       <c r="C14" t="s">
@@ -4130,10 +4145,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>607</v>
       </c>
       <c r="C15" t="s">
@@ -4141,10 +4156,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>608</v>
       </c>
       <c r="C16" t="s">
@@ -4152,10 +4167,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>609</v>
       </c>
       <c r="C17" t="s">
@@ -4163,10 +4178,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>610</v>
       </c>
       <c r="C18" t="s">
@@ -4174,10 +4189,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>611</v>
       </c>
       <c r="C19" t="s">
@@ -4185,10 +4200,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>612</v>
       </c>
       <c r="C20" t="s">
@@ -4196,10 +4211,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>613</v>
       </c>
       <c r="C21" t="s">
@@ -4207,10 +4222,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>614</v>
       </c>
       <c r="C22" t="s">
@@ -4218,10 +4233,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>615</v>
       </c>
       <c r="C23" t="s">
@@ -4229,10 +4244,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>616</v>
       </c>
       <c r="C24" t="s">
@@ -4240,10 +4255,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>617</v>
       </c>
       <c r="C25" t="s">
@@ -4251,10 +4266,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>618</v>
       </c>
       <c r="C26" t="s">
@@ -4262,10 +4277,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>619</v>
       </c>
       <c r="C27" t="s">
@@ -4273,10 +4288,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>620</v>
       </c>
       <c r="C28" t="s">
@@ -4284,10 +4299,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>621</v>
       </c>
       <c r="C29" t="s">
@@ -4295,10 +4310,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>622</v>
       </c>
       <c r="C30" t="s">
@@ -4306,10 +4321,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>623</v>
       </c>
       <c r="C31" t="s">
@@ -4317,10 +4332,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>624</v>
       </c>
       <c r="C32" t="s">
@@ -4328,10 +4343,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>625</v>
       </c>
       <c r="C33" t="s">
@@ -4339,10 +4354,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>626</v>
       </c>
       <c r="C34" t="s">
@@ -4350,10 +4365,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>627</v>
       </c>
       <c r="C35" t="s">
@@ -4361,10 +4376,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>628</v>
       </c>
       <c r="C36" t="s">
@@ -4372,10 +4387,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>629</v>
       </c>
       <c r="C37" t="s">
@@ -4383,10 +4398,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>630</v>
       </c>
       <c r="C38" t="s">
@@ -4394,10 +4409,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>631</v>
       </c>
       <c r="C39" t="s">
@@ -4405,10 +4420,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>632</v>
       </c>
       <c r="C40" t="s">
@@ -4416,10 +4431,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>633</v>
       </c>
       <c r="C41" t="s">
@@ -4427,10 +4442,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="5" t="s">
         <v>634</v>
       </c>
       <c r="C42" t="s">
@@ -4438,10 +4453,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>635</v>
       </c>
       <c r="C43" t="s">
@@ -4449,10 +4464,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>636</v>
       </c>
       <c r="C44" t="s">
@@ -4460,10 +4475,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>637</v>
       </c>
       <c r="C45" t="s">
@@ -4471,10 +4486,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>638</v>
       </c>
       <c r="C46" t="s">
@@ -4482,10 +4497,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>639</v>
       </c>
       <c r="C47" t="s">
@@ -4493,10 +4508,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>640</v>
       </c>
       <c r="C48" t="s">
@@ -4504,10 +4519,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>641</v>
       </c>
       <c r="C49" t="s">
@@ -4515,10 +4530,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>642</v>
       </c>
       <c r="C50" t="s">
@@ -4526,10 +4541,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="5" t="s">
         <v>643</v>
       </c>
       <c r="C51" t="s">
@@ -4537,10 +4552,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>644</v>
       </c>
       <c r="C52" t="s">
@@ -4548,10 +4563,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>645</v>
       </c>
       <c r="C53" t="s">
@@ -4559,10 +4574,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="5" t="s">
         <v>646</v>
       </c>
       <c r="C54" t="s">
@@ -4570,10 +4585,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="5" t="s">
         <v>647</v>
       </c>
       <c r="C55" t="s">
@@ -4581,10 +4596,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="5" t="s">
         <v>648</v>
       </c>
       <c r="C56" t="s">
@@ -4592,10 +4607,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="5" t="s">
         <v>649</v>
       </c>
       <c r="C57" t="s">
@@ -4603,10 +4618,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="5" t="s">
         <v>650</v>
       </c>
       <c r="C58" t="s">
@@ -4614,10 +4629,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="5" t="s">
         <v>651</v>
       </c>
       <c r="C59" t="s">
@@ -4625,10 +4640,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>652</v>
       </c>
       <c r="C60" t="s">
@@ -4636,10 +4651,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>653</v>
       </c>
       <c r="C61" t="s">
@@ -4647,10 +4662,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="5" t="s">
         <v>654</v>
       </c>
       <c r="C62" t="s">
@@ -4658,10 +4673,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>655</v>
       </c>
       <c r="C63" t="s">
@@ -4669,10 +4684,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>656</v>
       </c>
       <c r="C64" t="s">
@@ -4680,10 +4695,10 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="5" t="s">
         <v>657</v>
       </c>
       <c r="C65" t="s">
@@ -4691,10 +4706,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="5" t="s">
         <v>658</v>
       </c>
       <c r="C66" t="s">
@@ -4702,10 +4717,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="5" t="s">
         <v>659</v>
       </c>
       <c r="C67" t="s">
@@ -4713,10 +4728,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="5" t="s">
         <v>660</v>
       </c>
       <c r="C68" t="s">
@@ -4724,10 +4739,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="5" t="s">
         <v>661</v>
       </c>
       <c r="C69" t="s">
@@ -4735,10 +4750,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="5" t="s">
         <v>662</v>
       </c>
       <c r="C70" t="s">
@@ -4746,10 +4761,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="5" t="s">
         <v>663</v>
       </c>
       <c r="C71" t="s">
@@ -4757,10 +4772,10 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="5" t="s">
         <v>664</v>
       </c>
       <c r="C72" t="s">
@@ -4768,10 +4783,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="5" t="s">
         <v>665</v>
       </c>
       <c r="C73" t="s">
@@ -4779,10 +4794,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="5" t="s">
         <v>666</v>
       </c>
       <c r="C74" t="s">
@@ -4790,10 +4805,10 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="5" t="s">
         <v>667</v>
       </c>
       <c r="C75" t="s">
@@ -4801,10 +4816,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="5" t="s">
         <v>668</v>
       </c>
       <c r="C76" t="s">
@@ -4812,10 +4827,10 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="5" t="s">
         <v>669</v>
       </c>
       <c r="C77" t="s">
@@ -4823,10 +4838,10 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="5" t="s">
         <v>670</v>
       </c>
       <c r="C78" t="s">
@@ -4834,10 +4849,10 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="5" t="s">
         <v>671</v>
       </c>
       <c r="C79" t="s">
@@ -4845,10 +4860,10 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="5" t="s">
         <v>672</v>
       </c>
       <c r="C80" t="s">
@@ -4856,10 +4871,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="5" t="s">
         <v>673</v>
       </c>
       <c r="C81" t="s">
@@ -4867,10 +4882,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5" t="s">
         <v>674</v>
       </c>
       <c r="C82" t="s">
@@ -4878,10 +4893,10 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="5" t="s">
         <v>675</v>
       </c>
       <c r="C83" t="s">
@@ -4889,10 +4904,10 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="5" t="s">
         <v>596</v>
       </c>
       <c r="C84" t="s">
@@ -4900,10 +4915,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="5" t="s">
         <v>676</v>
       </c>
       <c r="C85" t="s">
@@ -4911,10 +4926,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="5" t="s">
         <v>677</v>
       </c>
       <c r="C86" t="s">
@@ -4922,10 +4937,10 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="5" t="s">
         <v>678</v>
       </c>
       <c r="C87" t="s">
@@ -4933,10 +4948,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="5" t="s">
         <v>679</v>
       </c>
       <c r="C88" t="s">
@@ -4944,10 +4959,10 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="5" t="s">
         <v>680</v>
       </c>
       <c r="C89" t="s">
@@ -4955,10 +4970,10 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="5" t="s">
         <v>681</v>
       </c>
       <c r="C90" t="s">
@@ -4966,10 +4981,10 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="5" t="s">
         <v>682</v>
       </c>
       <c r="C91" t="s">
@@ -4977,10 +4992,10 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="5" t="s">
         <v>683</v>
       </c>
       <c r="C92" t="s">
@@ -4988,10 +5003,10 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="5" t="s">
         <v>684</v>
       </c>
       <c r="C93" t="s">
@@ -4999,10 +5014,10 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="5" t="s">
         <v>685</v>
       </c>
       <c r="C94" t="s">
@@ -5010,10 +5025,10 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="5" t="s">
         <v>686</v>
       </c>
       <c r="C95" t="s">
@@ -5021,10 +5036,10 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="5" t="s">
         <v>687</v>
       </c>
       <c r="C96" t="s">
@@ -5032,10 +5047,10 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="5" t="s">
         <v>688</v>
       </c>
       <c r="C97" t="s">
@@ -5043,10 +5058,10 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="5" t="s">
         <v>689</v>
       </c>
       <c r="C98" t="s">
@@ -5054,10 +5069,10 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="5" t="s">
         <v>690</v>
       </c>
       <c r="C99" t="s">
@@ -5065,10 +5080,10 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="5" t="s">
         <v>691</v>
       </c>
       <c r="C100" t="s">
@@ -5076,10 +5091,10 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="5" t="s">
         <v>692</v>
       </c>
       <c r="C101" t="s">
@@ -5087,10 +5102,10 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="5" t="s">
         <v>693</v>
       </c>
       <c r="C102" t="s">
@@ -5098,10 +5113,10 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="5" t="s">
         <v>694</v>
       </c>
       <c r="C103" t="s">
@@ -5109,10 +5124,10 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="5" t="s">
         <v>695</v>
       </c>
       <c r="C104" t="s">
@@ -5120,10 +5135,10 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="5" t="s">
         <v>696</v>
       </c>
       <c r="C105" t="s">
@@ -5131,10 +5146,10 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="5" t="s">
         <v>697</v>
       </c>
       <c r="C106" t="s">
@@ -5142,10 +5157,10 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="5" t="s">
         <v>698</v>
       </c>
       <c r="C107" t="s">
@@ -5153,10 +5168,10 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="5" t="s">
         <v>699</v>
       </c>
       <c r="C108" t="s">
@@ -5164,10 +5179,10 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="5" t="s">
         <v>700</v>
       </c>
       <c r="C109" t="s">
@@ -5175,10 +5190,10 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="5" t="s">
         <v>701</v>
       </c>
       <c r="C110" t="s">
@@ -5186,10 +5201,10 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="5" t="s">
         <v>702</v>
       </c>
       <c r="C111" t="s">
@@ -5197,10 +5212,10 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="5" t="s">
         <v>703</v>
       </c>
       <c r="C112" t="s">
@@ -5208,10 +5223,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="5" t="s">
         <v>704</v>
       </c>
       <c r="C113" t="s">
@@ -5219,10 +5234,10 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="5" t="s">
         <v>705</v>
       </c>
       <c r="C114" t="s">
@@ -5230,10 +5245,10 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="5" t="s">
         <v>706</v>
       </c>
       <c r="C115" t="s">
@@ -5241,10 +5256,10 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="5" t="s">
         <v>707</v>
       </c>
       <c r="C116" t="s">
@@ -5252,10 +5267,10 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="5" t="s">
         <v>708</v>
       </c>
       <c r="C117" t="s">
@@ -5263,10 +5278,10 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="5" t="s">
         <v>709</v>
       </c>
       <c r="C118" t="s">
@@ -5274,10 +5289,10 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="5" t="s">
         <v>710</v>
       </c>
       <c r="C119" t="s">
@@ -5285,10 +5300,10 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="5" t="s">
         <v>711</v>
       </c>
       <c r="C120" t="s">
@@ -5296,10 +5311,10 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="5" t="s">
         <v>712</v>
       </c>
       <c r="C121" t="s">
@@ -5307,10 +5322,10 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="5" t="s">
         <v>713</v>
       </c>
       <c r="C122" t="s">
@@ -5318,10 +5333,10 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="5" t="s">
         <v>714</v>
       </c>
       <c r="C123" t="s">
@@ -5329,10 +5344,10 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="5" t="s">
         <v>715</v>
       </c>
       <c r="C124" t="s">
@@ -5340,10 +5355,10 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="5" t="s">
         <v>716</v>
       </c>
       <c r="C125" t="s">
@@ -5351,10 +5366,10 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="5" t="s">
         <v>717</v>
       </c>
       <c r="C126" t="s">
@@ -5362,10 +5377,10 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="5" t="s">
         <v>718</v>
       </c>
       <c r="C127" t="s">
@@ -5373,10 +5388,10 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="5" t="s">
         <v>719</v>
       </c>
       <c r="C128" t="s">
@@ -5384,10 +5399,10 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="5" t="s">
         <v>720</v>
       </c>
       <c r="C129" t="s">
@@ -5395,10 +5410,10 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="5" t="s">
         <v>721</v>
       </c>
       <c r="C130" t="s">
@@ -5406,10 +5421,10 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="5" t="s">
         <v>722</v>
       </c>
       <c r="C131" t="s">
@@ -5417,10 +5432,10 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="5" t="s">
         <v>723</v>
       </c>
       <c r="C132" t="s">
@@ -5428,10 +5443,10 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="5" t="s">
         <v>724</v>
       </c>
       <c r="C133" t="s">
@@ -5439,10 +5454,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="5" t="s">
         <v>725</v>
       </c>
       <c r="C134" t="s">
@@ -5450,10 +5465,10 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="5" t="s">
         <v>726</v>
       </c>
       <c r="C135" t="s">
@@ -5461,10 +5476,10 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="5" t="s">
         <v>727</v>
       </c>
       <c r="C136" t="s">
@@ -5472,10 +5487,10 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="5" t="s">
         <v>728</v>
       </c>
       <c r="C137" t="s">
@@ -5483,10 +5498,10 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="5" t="s">
         <v>729</v>
       </c>
       <c r="C138" t="s">
@@ -5494,10 +5509,10 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="5" t="s">
         <v>730</v>
       </c>
       <c r="C139" t="s">
@@ -5505,10 +5520,10 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="5" t="s">
         <v>731</v>
       </c>
       <c r="C140" t="s">
@@ -5516,10 +5531,10 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="5" t="s">
         <v>732</v>
       </c>
       <c r="C141" t="s">
@@ -5527,10 +5542,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="5" t="s">
         <v>733</v>
       </c>
       <c r="C142" t="s">
@@ -5538,10 +5553,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="5" t="s">
         <v>734</v>
       </c>
       <c r="C143" t="s">
@@ -5549,10 +5564,10 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="5" t="s">
         <v>735</v>
       </c>
       <c r="C144" t="s">
@@ -5560,10 +5575,10 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="5" t="s">
         <v>736</v>
       </c>
       <c r="C145" t="s">
@@ -5571,10 +5586,10 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="5" t="s">
         <v>737</v>
       </c>
       <c r="C146" t="s">
@@ -5582,10 +5597,10 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="5" t="s">
         <v>738</v>
       </c>
       <c r="C147" t="s">
@@ -5593,10 +5608,10 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="5" t="s">
         <v>739</v>
       </c>
       <c r="C148" t="s">
@@ -5604,10 +5619,10 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="5" t="s">
         <v>722</v>
       </c>
       <c r="C149" t="s">
@@ -5615,10 +5630,10 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="5" t="s">
         <v>740</v>
       </c>
       <c r="C150" t="s">
@@ -5626,10 +5641,10 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="5" t="s">
         <v>741</v>
       </c>
       <c r="C151" t="s">
@@ -5637,10 +5652,10 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C152" t="s">
@@ -5648,10 +5663,10 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="5" t="s">
         <v>743</v>
       </c>
       <c r="C153" t="s">
@@ -5659,10 +5674,10 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="5" t="s">
         <v>744</v>
       </c>
       <c r="C154" t="s">
@@ -5670,10 +5685,10 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="5" t="s">
         <v>745</v>
       </c>
       <c r="C155" t="s">
@@ -5681,10 +5696,10 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="5" t="s">
         <v>746</v>
       </c>
       <c r="C156" t="s">
@@ -5692,10 +5707,10 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="5" t="s">
         <v>747</v>
       </c>
       <c r="C157" t="s">
@@ -5703,10 +5718,10 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="5" t="s">
         <v>582</v>
       </c>
       <c r="C158" t="s">
@@ -5714,10 +5729,10 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="5" t="s">
         <v>748</v>
       </c>
       <c r="C159" t="s">
@@ -5725,10 +5740,10 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="5" t="s">
         <v>749</v>
       </c>
       <c r="C160" t="s">
@@ -5736,10 +5751,10 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="5" t="s">
         <v>750</v>
       </c>
       <c r="C161" t="s">
@@ -5747,10 +5762,10 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="5" t="s">
         <v>751</v>
       </c>
       <c r="C162" t="s">
@@ -5758,10 +5773,10 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="5" t="s">
         <v>752</v>
       </c>
       <c r="C163" t="s">
@@ -5769,10 +5784,10 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="5" t="s">
         <v>753</v>
       </c>
       <c r="C164" t="s">
@@ -5780,10 +5795,10 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="5" t="s">
         <v>754</v>
       </c>
       <c r="C165" t="s">
@@ -5791,10 +5806,10 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="5" t="s">
         <v>755</v>
       </c>
       <c r="C166" t="s">
@@ -5802,10 +5817,10 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="5" t="s">
         <v>756</v>
       </c>
       <c r="C167" t="s">
@@ -5813,10 +5828,10 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="5" t="s">
         <v>757</v>
       </c>
       <c r="C168" t="s">
@@ -5824,10 +5839,10 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="5" t="s">
         <v>758</v>
       </c>
       <c r="C169" t="s">
@@ -5835,10 +5850,10 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="5" t="s">
         <v>759</v>
       </c>
       <c r="C170" t="s">
@@ -5846,10 +5861,10 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="5" t="s">
         <v>760</v>
       </c>
       <c r="C171" t="s">
@@ -5857,10 +5872,10 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="5" t="s">
         <v>761</v>
       </c>
       <c r="C172" t="s">
@@ -5868,10 +5883,10 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" s="5" t="s">
         <v>762</v>
       </c>
       <c r="C173" t="s">
@@ -5879,10 +5894,10 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" s="5" t="s">
         <v>763</v>
       </c>
       <c r="C174" t="s">
@@ -5890,10 +5905,10 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="5" t="s">
         <v>764</v>
       </c>
       <c r="C175" t="s">
@@ -5901,10 +5916,10 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" s="5" t="s">
         <v>765</v>
       </c>
       <c r="C176" t="s">
@@ -5912,10 +5927,10 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" s="5" t="s">
         <v>766</v>
       </c>
       <c r="C177" t="s">
@@ -5923,10 +5938,10 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="5" t="s">
         <v>767</v>
       </c>
       <c r="C178" t="s">
@@ -5934,10 +5949,10 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="5" t="s">
         <v>768</v>
       </c>
       <c r="C179" t="s">
@@ -5945,10 +5960,10 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="5" t="s">
         <v>769</v>
       </c>
       <c r="C180" t="s">
@@ -5956,10 +5971,10 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="5" t="s">
         <v>635</v>
       </c>
       <c r="C181" t="s">
@@ -5967,10 +5982,10 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="5" t="s">
         <v>770</v>
       </c>
       <c r="C182" t="s">
@@ -5978,10 +5993,10 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="5" t="s">
         <v>771</v>
       </c>
       <c r="C183" t="s">
@@ -5989,10 +6004,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="5" t="s">
         <v>772</v>
       </c>
       <c r="C184" t="s">
@@ -6000,10 +6015,10 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" s="5" t="s">
         <v>773</v>
       </c>
       <c r="C185" t="s">
@@ -6011,10 +6026,10 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="5" t="s">
         <v>774</v>
       </c>
       <c r="C186" t="s">
@@ -6022,10 +6037,10 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" s="5" t="s">
         <v>775</v>
       </c>
       <c r="C187" t="s">
@@ -6033,10 +6048,10 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="5" t="s">
         <v>776</v>
       </c>
       <c r="C188" t="s">
@@ -6044,10 +6059,10 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="5" t="s">
         <v>777</v>
       </c>
       <c r="C189" t="s">
@@ -6055,10 +6070,10 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" s="5" t="s">
         <v>778</v>
       </c>
       <c r="C190" t="s">
@@ -6066,10 +6081,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="5" t="s">
         <v>779</v>
       </c>
       <c r="C191" t="s">
@@ -6077,10 +6092,10 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="5" t="s">
         <v>780</v>
       </c>
       <c r="C192" t="s">
@@ -6088,10 +6103,10 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="5" t="s">
         <v>781</v>
       </c>
       <c r="C193" t="s">
@@ -6099,10 +6114,10 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="5" t="s">
         <v>782</v>
       </c>
       <c r="C194" t="s">
@@ -6110,10 +6125,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" s="5" t="s">
         <v>783</v>
       </c>
       <c r="C195" t="s">
@@ -6121,10 +6136,10 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="5" t="s">
         <v>784</v>
       </c>
       <c r="C196" t="s">
@@ -6132,10 +6147,10 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="5" t="s">
         <v>785</v>
       </c>
       <c r="C197" t="s">
@@ -6143,10 +6158,10 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" s="5" t="s">
         <v>786</v>
       </c>
       <c r="C198" t="s">
@@ -6154,10 +6169,10 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="5" t="s">
         <v>787</v>
       </c>
       <c r="C199" t="s">
@@ -6165,10 +6180,10 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="5" t="s">
         <v>788</v>
       </c>
       <c r="C200" t="s">
@@ -6176,10 +6191,10 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B201" s="5" t="s">
         <v>789</v>
       </c>
       <c r="C201" t="s">
@@ -6187,10 +6202,10 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="5" t="s">
         <v>790</v>
       </c>
       <c r="C202" t="s">
@@ -6198,10 +6213,10 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B203" s="5" t="s">
         <v>791</v>
       </c>
       <c r="C203" t="s">
@@ -6209,10 +6224,10 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B204" s="5" t="s">
         <v>792</v>
       </c>
       <c r="C204" t="s">
@@ -6220,10 +6235,10 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B205" s="5" t="s">
         <v>793</v>
       </c>
       <c r="C205" t="s">
@@ -6231,10 +6246,10 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="5" t="s">
         <v>794</v>
       </c>
       <c r="C206" t="s">
@@ -6242,10 +6257,10 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="5" t="s">
         <v>795</v>
       </c>
       <c r="C207" t="s">
@@ -6253,10 +6268,10 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="5" t="s">
         <v>796</v>
       </c>
       <c r="C208" t="s">
@@ -6264,10 +6279,10 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="5" t="s">
         <v>797</v>
       </c>
       <c r="C209" t="s">
@@ -6275,10 +6290,10 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="5" t="s">
         <v>798</v>
       </c>
       <c r="C210" t="s">
@@ -6286,10 +6301,10 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="5" t="s">
         <v>799</v>
       </c>
       <c r="C211" t="s">
@@ -6297,10 +6312,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="5" t="s">
         <v>800</v>
       </c>
       <c r="C212" t="s">
@@ -6308,10 +6323,10 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="5" t="s">
         <v>801</v>
       </c>
       <c r="C213" t="s">
@@ -6319,10 +6334,10 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="5" t="s">
         <v>802</v>
       </c>
       <c r="C214" t="s">
@@ -6330,10 +6345,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="5" t="s">
         <v>803</v>
       </c>
       <c r="C215" t="s">
@@ -6341,10 +6356,10 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="5" t="s">
         <v>804</v>
       </c>
       <c r="C216" t="s">
@@ -6352,10 +6367,10 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="5" t="s">
         <v>805</v>
       </c>
       <c r="C217" t="s">
@@ -6363,10 +6378,10 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="B218" s="5" t="s">
         <v>806</v>
       </c>
       <c r="C218" t="s">
@@ -6374,10 +6389,10 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B219" s="5" t="s">
         <v>807</v>
       </c>
       <c r="C219" t="s">
@@ -6385,10 +6400,10 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B220" s="5" t="s">
         <v>808</v>
       </c>
       <c r="C220" t="s">
@@ -6396,10 +6411,10 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B221" s="5" t="s">
         <v>809</v>
       </c>
       <c r="C221" t="s">
@@ -6407,10 +6422,10 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B222" s="5" t="s">
         <v>810</v>
       </c>
       <c r="C222" t="s">
@@ -6418,10 +6433,10 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B223" s="5" t="s">
         <v>811</v>
       </c>
       <c r="C223" t="s">
@@ -6429,10 +6444,10 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B224" s="5" t="s">
         <v>812</v>
       </c>
       <c r="C224" t="s">
@@ -6440,10 +6455,10 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B225" s="5" t="s">
         <v>813</v>
       </c>
       <c r="C225" t="s">
@@ -6451,10 +6466,10 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B226" s="5" t="s">
         <v>814</v>
       </c>
       <c r="C226" t="s">
@@ -6462,10 +6477,10 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B227" s="5" t="s">
         <v>815</v>
       </c>
       <c r="C227" t="s">
@@ -6473,10 +6488,10 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B228" s="5" t="s">
         <v>816</v>
       </c>
       <c r="C228" t="s">
@@ -6484,10 +6499,10 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="5" t="s">
         <v>817</v>
       </c>
       <c r="C229" t="s">
@@ -6495,10 +6510,10 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B230" s="5" t="s">
         <v>818</v>
       </c>
       <c r="C230" t="s">
@@ -6506,10 +6521,10 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="5" t="s">
         <v>819</v>
       </c>
       <c r="C231" t="s">
@@ -6517,10 +6532,10 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B232" s="5" t="s">
         <v>820</v>
       </c>
       <c r="C232" t="s">
@@ -6528,10 +6543,10 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B233" s="5" t="s">
         <v>821</v>
       </c>
       <c r="C233" t="s">
@@ -6539,10 +6554,10 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="B234" s="5" t="s">
         <v>822</v>
       </c>
       <c r="C234" t="s">
@@ -6550,10 +6565,10 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="B235" s="5" t="s">
         <v>823</v>
       </c>
       <c r="C235" t="s">
@@ -6561,10 +6576,10 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B236" s="5" t="s">
         <v>824</v>
       </c>
       <c r="C236" t="s">
@@ -6572,10 +6587,10 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="5" t="s">
         <v>825</v>
       </c>
       <c r="C237" t="s">
@@ -6583,10 +6598,10 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="5" t="s">
         <v>826</v>
       </c>
       <c r="C238" t="s">
@@ -6594,10 +6609,10 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="5" t="s">
         <v>827</v>
       </c>
       <c r="C239" t="s">
@@ -6605,10 +6620,10 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="5" t="s">
         <v>828</v>
       </c>
       <c r="C240" t="s">
@@ -6616,10 +6631,10 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="5" t="s">
         <v>829</v>
       </c>
       <c r="C241" t="s">
@@ -6627,10 +6642,10 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" s="5" t="s">
         <v>830</v>
       </c>
       <c r="C242" t="s">
@@ -6638,10 +6653,10 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="5" t="s">
         <v>831</v>
       </c>
       <c r="C243" t="s">
@@ -6649,10 +6664,10 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" s="5" t="s">
         <v>832</v>
       </c>
       <c r="C244" t="s">
@@ -6660,10 +6675,10 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="5" t="s">
         <v>833</v>
       </c>
       <c r="C245" t="s">
@@ -6671,10 +6686,10 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" s="5" t="s">
         <v>834</v>
       </c>
       <c r="C246" t="s">
@@ -6682,10 +6697,10 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" s="5" t="s">
         <v>835</v>
       </c>
       <c r="C247" t="s">
@@ -6693,10 +6708,10 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" s="5" t="s">
         <v>836</v>
       </c>
       <c r="C248" t="s">
@@ -6704,10 +6719,10 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" s="5" t="s">
         <v>837</v>
       </c>
       <c r="C249" t="s">
@@ -6715,10 +6730,10 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="5" t="s">
         <v>838</v>
       </c>
       <c r="C250" t="s">
@@ -6726,10 +6741,10 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" s="5" t="s">
         <v>839</v>
       </c>
       <c r="C251" t="s">
@@ -6737,10 +6752,10 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" s="5" t="s">
         <v>840</v>
       </c>
       <c r="C252" t="s">
@@ -6748,10 +6763,10 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B253" s="5" t="s">
         <v>841</v>
       </c>
       <c r="C253" t="s">
@@ -6759,10 +6774,10 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="B254" s="5" t="s">
         <v>842</v>
       </c>
       <c r="C254" t="s">
@@ -6770,10 +6785,10 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="B255" s="5" t="s">
         <v>843</v>
       </c>
       <c r="C255" t="s">
@@ -6781,10 +6796,10 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="B256" s="5" t="s">
         <v>844</v>
       </c>
       <c r="C256" t="s">
@@ -6792,10 +6807,10 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B257" s="5" t="s">
         <v>845</v>
       </c>
       <c r="C257" t="s">
@@ -6803,10 +6818,10 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="5" t="s">
         <v>846</v>
       </c>
       <c r="C258" t="s">
@@ -6814,10 +6829,10 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B259" s="5" t="s">
         <v>847</v>
       </c>
       <c r="C259" t="s">
@@ -6825,10 +6840,10 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B260" s="5" t="s">
         <v>848</v>
       </c>
       <c r="C260" t="s">
@@ -6836,10 +6851,10 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B261" s="5" t="s">
         <v>849</v>
       </c>
       <c r="C261" t="s">
@@ -6847,10 +6862,10 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B262" s="5" t="s">
         <v>850</v>
       </c>
       <c r="C262" t="s">
@@ -6858,10 +6873,10 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B263" s="5" t="s">
         <v>851</v>
       </c>
       <c r="C263" t="s">
@@ -6869,10 +6884,10 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="B264" s="5" t="s">
         <v>852</v>
       </c>
       <c r="C264" t="s">
@@ -6880,10 +6895,10 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B265" s="5" t="s">
         <v>853</v>
       </c>
       <c r="C265" t="s">
@@ -6891,10 +6906,10 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="B266" s="5" t="s">
         <v>854</v>
       </c>
       <c r="C266" t="s">
@@ -6902,10 +6917,10 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" s="5" t="s">
         <v>855</v>
       </c>
       <c r="C267" t="s">
@@ -6913,10 +6928,10 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" s="5" t="s">
         <v>856</v>
       </c>
       <c r="C268" t="s">
@@ -6924,10 +6939,10 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="B269" s="5" t="s">
         <v>857</v>
       </c>
       <c r="C269" t="s">
@@ -6935,10 +6950,10 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" s="5" t="s">
         <v>858</v>
       </c>
       <c r="C270" t="s">
@@ -6946,10 +6961,10 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B271" s="5" t="s">
         <v>859</v>
       </c>
       <c r="C271" t="s">
@@ -6957,10 +6972,10 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B272" s="5" t="s">
         <v>860</v>
       </c>
       <c r="C272" t="s">
@@ -6968,10 +6983,10 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="B273" s="5" t="s">
         <v>861</v>
       </c>
       <c r="C273" t="s">
@@ -6979,10 +6994,10 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B274" s="5" t="s">
         <v>862</v>
       </c>
       <c r="C274" t="s">
@@ -6990,10 +7005,10 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B275" s="5" t="s">
         <v>863</v>
       </c>
       <c r="C275" t="s">
@@ -7001,10 +7016,10 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B276" s="5" t="s">
         <v>864</v>
       </c>
       <c r="C276" t="s">
@@ -7012,10 +7027,10 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B277" s="5" t="s">
         <v>865</v>
       </c>
       <c r="C277" t="s">
@@ -7023,10 +7038,10 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B278" s="5" t="s">
         <v>866</v>
       </c>
       <c r="C278" t="s">
@@ -7034,10 +7049,10 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B279" s="5" t="s">
         <v>867</v>
       </c>
       <c r="C279" t="s">
@@ -7045,10 +7060,10 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B280" s="5" t="s">
         <v>868</v>
       </c>
       <c r="C280" t="s">
@@ -7056,10 +7071,10 @@
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B281" s="5" t="s">
         <v>869</v>
       </c>
       <c r="C281" t="s">
@@ -7067,10 +7082,10 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B282" s="5" t="s">
         <v>870</v>
       </c>
       <c r="C282" t="s">
@@ -7078,10 +7093,10 @@
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B283" s="5" t="s">
         <v>871</v>
       </c>
       <c r="C283" t="s">
@@ -7089,10 +7104,10 @@
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B284" s="5" t="s">
         <v>872</v>
       </c>
       <c r="C284" t="s">
@@ -7100,10 +7115,10 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B285" s="5" t="s">
         <v>873</v>
       </c>
       <c r="C285" t="s">
@@ -7111,10 +7126,10 @@
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="B286" s="5" t="s">
         <v>874</v>
       </c>
       <c r="C286" t="s">
@@ -7122,10 +7137,10 @@
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="B287" s="5" t="s">
         <v>875</v>
       </c>
       <c r="C287" t="s">
@@ -7133,10 +7148,10 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="B288" s="5" t="s">
         <v>876</v>
       </c>
       <c r="C288" t="s">
@@ -7144,10 +7159,10 @@
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B289" s="5" t="s">
         <v>877</v>
       </c>
       <c r="C289" t="s">
@@ -7155,10 +7170,10 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B290" s="5" t="s">
         <v>878</v>
       </c>
       <c r="C290" t="s">
@@ -7166,10 +7181,10 @@
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B291" s="5" t="s">
         <v>879</v>
       </c>
       <c r="C291" t="s">
@@ -7177,10 +7192,10 @@
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B292" s="5" t="s">
         <v>880</v>
       </c>
       <c r="C292" t="s">
@@ -7188,10 +7203,10 @@
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B293" s="5" t="s">
         <v>881</v>
       </c>
       <c r="C293" t="s">
@@ -7199,10 +7214,10 @@
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="B294" s="5" t="s">
         <v>882</v>
       </c>
       <c r="C294" t="s">
@@ -7210,10 +7225,10 @@
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B295" s="5" t="s">
         <v>883</v>
       </c>
       <c r="C295" t="s">
@@ -7221,10 +7236,10 @@
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="B296" s="5" t="s">
         <v>884</v>
       </c>
       <c r="C296" t="s">
@@ -7232,10 +7247,10 @@
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B297" s="5" t="s">
         <v>885</v>
       </c>
       <c r="C297" t="s">
@@ -7243,10 +7258,10 @@
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="B298" s="5" t="s">
         <v>886</v>
       </c>
       <c r="C298" t="s">
@@ -7254,10 +7269,10 @@
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="B299" s="5" t="s">
         <v>887</v>
       </c>
       <c r="C299" t="s">
@@ -7265,10 +7280,10 @@
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" s="5" t="s">
         <v>690</v>
       </c>
       <c r="C300" t="s">
@@ -7276,10 +7291,10 @@
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" s="5" t="s">
         <v>888</v>
       </c>
       <c r="C301" t="s">
@@ -7287,10 +7302,10 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B302" s="5" t="s">
         <v>889</v>
       </c>
       <c r="C302" t="s">
@@ -7298,10 +7313,10 @@
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B303" s="5" t="s">
         <v>890</v>
       </c>
       <c r="C303" t="s">
@@ -7309,10 +7324,10 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B304" s="5" t="s">
         <v>891</v>
       </c>
       <c r="C304" t="s">
@@ -7320,10 +7335,10 @@
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="B305" s="5" t="s">
         <v>892</v>
       </c>
       <c r="C305" t="s">
@@ -7331,10 +7346,10 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B306" s="5" t="s">
         <v>893</v>
       </c>
       <c r="C306" t="s">
@@ -7342,10 +7357,10 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="B307" s="5" t="s">
         <v>894</v>
       </c>
       <c r="C307" t="s">
@@ -7353,10 +7368,10 @@
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="B308" s="5" t="s">
         <v>895</v>
       </c>
       <c r="C308" t="s">
@@ -7364,10 +7379,10 @@
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="B309" s="5" t="s">
         <v>896</v>
       </c>
       <c r="C309" t="s">
@@ -7375,10 +7390,10 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B310" s="5" t="s">
         <v>897</v>
       </c>
       <c r="C310" t="s">
@@ -7386,10 +7401,10 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="B311" s="5" t="s">
         <v>898</v>
       </c>
       <c r="C311" t="s">
@@ -7397,10 +7412,10 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="B312" s="5" t="s">
         <v>899</v>
       </c>
       <c r="C312" t="s">
@@ -7408,10 +7423,10 @@
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B313" s="5" t="s">
         <v>900</v>
       </c>
       <c r="C313" t="s">
@@ -7419,10 +7434,10 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B314" s="5" t="s">
         <v>901</v>
       </c>
       <c r="C314" t="s">
@@ -7430,10 +7445,10 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B315" s="5" t="s">
         <v>902</v>
       </c>
       <c r="C315" t="s">
@@ -7441,10 +7456,10 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B316" s="5" t="s">
         <v>903</v>
       </c>
       <c r="C316" t="s">
@@ -7452,10 +7467,10 @@
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B317" s="5" t="s">
         <v>904</v>
       </c>
       <c r="C317" t="s">
@@ -7463,10 +7478,10 @@
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B318" s="5" t="s">
         <v>905</v>
       </c>
       <c r="C318" t="s">
@@ -7474,10 +7489,10 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B319" s="5" t="s">
         <v>906</v>
       </c>
       <c r="C319" t="s">
@@ -7485,10 +7500,10 @@
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B320" s="5" t="s">
         <v>907</v>
       </c>
       <c r="C320" t="s">
@@ -7496,10 +7511,10 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B321" s="5" t="s">
         <v>908</v>
       </c>
       <c r="C321" t="s">
@@ -7507,10 +7522,10 @@
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="B322" s="5" t="s">
         <v>909</v>
       </c>
       <c r="C322" t="s">
@@ -7518,10 +7533,10 @@
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="B323" s="5" t="s">
         <v>910</v>
       </c>
       <c r="C323" t="s">
@@ -7529,10 +7544,10 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="B324" s="5" t="s">
         <v>911</v>
       </c>
       <c r="C324" t="s">
@@ -7540,10 +7555,10 @@
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="B325" s="5" t="s">
         <v>912</v>
       </c>
       <c r="C325" t="s">
@@ -7551,10 +7566,10 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
+      <c r="A326" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="B326" s="5" t="s">
         <v>913</v>
       </c>
       <c r="C326" t="s">
@@ -7562,10 +7577,10 @@
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B327" s="5" t="s">
         <v>914</v>
       </c>
       <c r="C327" t="s">
@@ -7573,10 +7588,10 @@
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
+      <c r="A328" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="B328" s="5" t="s">
         <v>915</v>
       </c>
       <c r="C328" t="s">
@@ -7584,10 +7599,10 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="B329" s="5" t="s">
         <v>916</v>
       </c>
       <c r="C329" t="s">
@@ -7595,10 +7610,10 @@
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="B330" s="5" t="s">
         <v>917</v>
       </c>
       <c r="C330" t="s">
@@ -7606,10 +7621,10 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="B331" s="5" t="s">
         <v>918</v>
       </c>
       <c r="C331" t="s">
@@ -7617,10 +7632,10 @@
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
+      <c r="A332" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="B332" s="5" t="s">
         <v>919</v>
       </c>
       <c r="C332" t="s">
@@ -7628,10 +7643,10 @@
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
+      <c r="A333" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B333" s="5" t="s">
         <v>920</v>
       </c>
       <c r="C333" t="s">
@@ -7639,10 +7654,10 @@
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="B334" s="5" t="s">
         <v>921</v>
       </c>
       <c r="C334" t="s">
@@ -7650,10 +7665,10 @@
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="B335" s="5" t="s">
         <v>922</v>
       </c>
       <c r="C335" t="s">
@@ -7661,10 +7676,10 @@
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="B336" s="5" t="s">
         <v>923</v>
       </c>
       <c r="C336" t="s">
@@ -7672,10 +7687,10 @@
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="B337" s="5" t="s">
         <v>924</v>
       </c>
       <c r="C337" t="s">
@@ -7683,10 +7698,10 @@
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
+      <c r="A338" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="B338" s="5" t="s">
         <v>925</v>
       </c>
       <c r="C338" t="s">
@@ -7694,10 +7709,10 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" s="5" t="s">
         <v>926</v>
       </c>
       <c r="C339" t="s">
@@ -7705,10 +7720,10 @@
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" s="5" t="s">
         <v>927</v>
       </c>
       <c r="C340" t="s">
@@ -7716,10 +7731,10 @@
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B341" s="5" t="s">
         <v>928</v>
       </c>
       <c r="C341" t="s">
@@ -7727,10 +7742,10 @@
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="B342" s="5" t="s">
         <v>929</v>
       </c>
       <c r="C342" t="s">
@@ -7738,10 +7753,10 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B343" s="5" t="s">
         <v>930</v>
       </c>
       <c r="C343" t="s">
@@ -7749,10 +7764,10 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="B344" s="5" t="s">
         <v>931</v>
       </c>
       <c r="C344" t="s">
@@ -7760,10 +7775,10 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="B345" s="5" t="s">
         <v>932</v>
       </c>
       <c r="C345" t="s">
@@ -7771,10 +7786,10 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="B346" s="5" t="s">
         <v>933</v>
       </c>
       <c r="C346" t="s">
@@ -7782,10 +7797,10 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="B347" s="5" t="s">
         <v>934</v>
       </c>
       <c r="C347" t="s">
@@ -7793,10 +7808,10 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="B348" s="5" t="s">
         <v>935</v>
       </c>
       <c r="C348" t="s">
@@ -7804,10 +7819,10 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="B349" s="5" t="s">
         <v>936</v>
       </c>
       <c r="C349" t="s">
@@ -7815,10 +7830,10 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B350" s="5" t="s">
         <v>937</v>
       </c>
       <c r="C350" t="s">
@@ -7826,10 +7841,10 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
+      <c r="A351" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="B351" s="5" t="s">
         <v>938</v>
       </c>
       <c r="C351" t="s">
@@ -7837,10 +7852,10 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="B352" s="5" t="s">
         <v>939</v>
       </c>
       <c r="C352" t="s">
@@ -7848,10 +7863,10 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="B353" s="5" t="s">
         <v>940</v>
       </c>
       <c r="C353" t="s">
@@ -7859,10 +7874,10 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B354" s="5" t="s">
         <v>690</v>
       </c>
       <c r="C354" t="s">
@@ -7870,10 +7885,10 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B355" s="5" t="s">
         <v>941</v>
       </c>
       <c r="C355" t="s">
@@ -7881,10 +7896,10 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B356" s="5" t="s">
         <v>942</v>
       </c>
       <c r="C356" t="s">
@@ -7892,10 +7907,10 @@
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="B357" s="5" t="s">
         <v>943</v>
       </c>
       <c r="C357" t="s">
@@ -7903,10 +7918,10 @@
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B358" s="5" t="s">
         <v>616</v>
       </c>
       <c r="C358" t="s">
@@ -7914,10 +7929,10 @@
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="B359" s="5" t="s">
         <v>944</v>
       </c>
       <c r="C359" t="s">
@@ -7925,10 +7940,10 @@
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="B360" s="5" t="s">
         <v>945</v>
       </c>
       <c r="C360" t="s">
@@ -7936,10 +7951,10 @@
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="B361" s="5" t="s">
         <v>946</v>
       </c>
       <c r="C361" t="s">
@@ -7947,10 +7962,10 @@
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="B362" s="5" t="s">
         <v>827</v>
       </c>
       <c r="C362" t="s">
@@ -7958,10 +7973,10 @@
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
+      <c r="A363" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B363" s="5" t="s">
         <v>577</v>
       </c>
       <c r="C363" t="s">
@@ -7969,10 +7984,10 @@
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="B364" s="5" t="s">
         <v>947</v>
       </c>
       <c r="C364" t="s">
@@ -7980,10 +7995,10 @@
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="B365" s="5" t="s">
         <v>948</v>
       </c>
       <c r="C365" t="s">
@@ -7991,10 +8006,10 @@
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="B366" s="5" t="s">
         <v>949</v>
       </c>
       <c r="C366" t="s">
@@ -8002,10 +8017,10 @@
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="B367" s="5" t="s">
         <v>950</v>
       </c>
       <c r="C367" t="s">
@@ -8013,10 +8028,10 @@
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="B368" s="5" t="s">
         <v>951</v>
       </c>
       <c r="C368" t="s">
@@ -8024,10 +8039,10 @@
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="B369" s="5" t="s">
         <v>952</v>
       </c>
       <c r="C369" t="s">
@@ -8035,10 +8050,10 @@
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="B370" s="5" t="s">
         <v>953</v>
       </c>
       <c r="C370" t="s">
@@ -8046,10 +8061,10 @@
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="B371" s="5" t="s">
         <v>954</v>
       </c>
       <c r="C371" t="s">
@@ -8057,10 +8072,10 @@
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="B372" s="5" t="s">
         <v>955</v>
       </c>
       <c r="C372" t="s">
@@ -8068,10 +8083,10 @@
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="B373" s="5" t="s">
         <v>956</v>
       </c>
       <c r="C373" t="s">
@@ -8079,10 +8094,10 @@
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="B374" s="5" t="s">
         <v>957</v>
       </c>
       <c r="C374" t="s">
@@ -8090,10 +8105,10 @@
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="B375" s="5" t="s">
         <v>958</v>
       </c>
       <c r="C375" t="s">
@@ -8101,10 +8116,10 @@
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B376" s="5" t="s">
         <v>959</v>
       </c>
       <c r="C376" t="s">
@@ -8112,10 +8127,10 @@
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="B377" s="5" t="s">
         <v>960</v>
       </c>
       <c r="C377" t="s">
@@ -8123,10 +8138,10 @@
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="B378" s="5" t="s">
         <v>961</v>
       </c>
       <c r="C378" t="s">
@@ -8134,10 +8149,10 @@
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="B379" s="5" t="s">
         <v>962</v>
       </c>
       <c r="C379" t="s">
@@ -8145,10 +8160,10 @@
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="B380" s="5" t="s">
         <v>963</v>
       </c>
       <c r="C380" t="s">
@@ -8156,10 +8171,10 @@
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="B381" s="5" t="s">
         <v>964</v>
       </c>
       <c r="C381" t="s">
@@ -8167,10 +8182,10 @@
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B382" s="5" t="s">
         <v>965</v>
       </c>
       <c r="C382" t="s">
@@ -8178,10 +8193,10 @@
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="B383" s="5" t="s">
         <v>966</v>
       </c>
       <c r="C383" t="s">
@@ -8189,10 +8204,10 @@
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="B384" s="5" t="s">
         <v>967</v>
       </c>
       <c r="C384" t="s">
@@ -8200,10 +8215,10 @@
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="B385" s="5" t="s">
         <v>968</v>
       </c>
       <c r="C385" t="s">
@@ -8211,10 +8226,10 @@
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="B386" s="5" t="s">
         <v>969</v>
       </c>
       <c r="C386" t="s">
@@ -8222,10 +8237,10 @@
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B387" s="1" t="s">
+      <c r="B387" s="5" t="s">
         <v>970</v>
       </c>
       <c r="C387" t="s">
@@ -8233,10 +8248,10 @@
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="B388" s="5" t="s">
         <v>971</v>
       </c>
       <c r="C388" t="s">
@@ -8244,10 +8259,10 @@
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A389" s="1" t="s">
+      <c r="A389" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B389" s="1" t="s">
+      <c r="B389" s="5" t="s">
         <v>972</v>
       </c>
       <c r="C389" t="s">
@@ -8255,10 +8270,10 @@
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B390" s="1" t="s">
+      <c r="B390" s="5" t="s">
         <v>973</v>
       </c>
       <c r="C390" t="s">
@@ -8266,10 +8281,10 @@
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
+      <c r="A391" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="B391" s="5" t="s">
         <v>974</v>
       </c>
       <c r="C391" t="s">
@@ -8277,10 +8292,10 @@
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B392" s="1" t="s">
+      <c r="B392" s="5" t="s">
         <v>975</v>
       </c>
       <c r="C392" t="s">
@@ -8288,10 +8303,10 @@
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B393" s="1" t="s">
+      <c r="B393" s="5" t="s">
         <v>976</v>
       </c>
       <c r="C393" t="s">
@@ -8299,10 +8314,10 @@
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B394" s="1" t="s">
+      <c r="B394" s="5" t="s">
         <v>977</v>
       </c>
       <c r="C394" t="s">
@@ -8310,10 +8325,10 @@
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B395" s="1" t="s">
+      <c r="B395" s="5" t="s">
         <v>978</v>
       </c>
       <c r="C395" t="s">
@@ -8321,10 +8336,10 @@
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B396" s="1" t="s">
+      <c r="B396" s="5" t="s">
         <v>979</v>
       </c>
       <c r="C396" t="s">
@@ -8332,10 +8347,10 @@
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B397" s="1" t="s">
+      <c r="B397" s="5" t="s">
         <v>980</v>
       </c>
       <c r="C397" t="s">
@@ -8343,10 +8358,10 @@
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B398" s="1" t="s">
+      <c r="B398" s="5" t="s">
         <v>981</v>
       </c>
       <c r="C398" t="s">
@@ -8354,10 +8369,10 @@
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B399" s="1" t="s">
+      <c r="B399" s="5" t="s">
         <v>982</v>
       </c>
       <c r="C399" t="s">
@@ -8365,10 +8380,10 @@
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="B400" s="5" t="s">
         <v>983</v>
       </c>
       <c r="C400" t="s">
@@ -8376,10 +8391,10 @@
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B401" s="1" t="s">
+      <c r="B401" s="5" t="s">
         <v>984</v>
       </c>
       <c r="C401" t="s">
@@ -8387,10 +8402,10 @@
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B402" s="1" t="s">
+      <c r="B402" s="5" t="s">
         <v>985</v>
       </c>
       <c r="C402" t="s">
@@ -8398,10 +8413,10 @@
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B403" s="1" t="s">
+      <c r="B403" s="5" t="s">
         <v>986</v>
       </c>
       <c r="C403" t="s">
@@ -8409,10 +8424,10 @@
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="B404" s="5" t="s">
         <v>987</v>
       </c>
       <c r="C404" t="s">
@@ -8420,10 +8435,10 @@
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B405" s="1" t="s">
+      <c r="B405" s="5" t="s">
         <v>988</v>
       </c>
       <c r="C405" t="s">
@@ -8431,10 +8446,10 @@
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="B406" s="5" t="s">
         <v>989</v>
       </c>
       <c r="C406" t="s">
@@ -8442,10 +8457,10 @@
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="B407" s="5" t="s">
         <v>990</v>
       </c>
       <c r="C407" t="s">
@@ -8453,10 +8468,10 @@
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B408" s="1" t="s">
+      <c r="B408" s="5" t="s">
         <v>748</v>
       </c>
       <c r="C408" t="s">
@@ -8464,10 +8479,10 @@
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B409" s="1" t="s">
+      <c r="B409" s="5" t="s">
         <v>779</v>
       </c>
       <c r="C409" t="s">
@@ -8475,10 +8490,10 @@
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="B410" s="5" t="s">
         <v>991</v>
       </c>
       <c r="C410" t="s">
@@ -8486,10 +8501,10 @@
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B411" s="1" t="s">
+      <c r="B411" s="5" t="s">
         <v>992</v>
       </c>
       <c r="C411" t="s">
@@ -8497,10 +8512,10 @@
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B412" s="1" t="s">
+      <c r="B412" s="5" t="s">
         <v>993</v>
       </c>
       <c r="C412" t="s">
@@ -8508,10 +8523,10 @@
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="B413" s="5" t="s">
         <v>994</v>
       </c>
       <c r="C413" t="s">
@@ -8519,10 +8534,10 @@
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="B414" s="5" t="s">
         <v>654</v>
       </c>
       <c r="C414" t="s">
@@ -8530,10 +8545,10 @@
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A415" s="1" t="s">
+      <c r="A415" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="B415" s="5" t="s">
         <v>995</v>
       </c>
       <c r="C415" t="s">
@@ -8541,10 +8556,10 @@
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A416" s="1" t="s">
+      <c r="A416" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="B416" s="5" t="s">
         <v>996</v>
       </c>
       <c r="C416" t="s">
@@ -8552,10 +8567,10 @@
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="1" t="s">
+      <c r="A417" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B417" s="1" t="s">
+      <c r="B417" s="5" t="s">
         <v>997</v>
       </c>
       <c r="C417" t="s">
@@ -8563,10 +8578,10 @@
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="1" t="s">
+      <c r="A418" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B418" s="1" t="s">
+      <c r="B418" s="5" t="s">
         <v>998</v>
       </c>
       <c r="C418" t="s">
@@ -8574,10 +8589,10 @@
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B419" s="1" t="s">
+      <c r="B419" s="5" t="s">
         <v>999</v>
       </c>
       <c r="C419" t="s">
@@ -8585,10 +8600,10 @@
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B420" s="1" t="s">
+      <c r="B420" s="5" t="s">
         <v>728</v>
       </c>
       <c r="C420" t="s">
@@ -8596,10 +8611,10 @@
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B421" s="1" t="s">
+      <c r="B421" s="5" t="s">
         <v>1000</v>
       </c>
       <c r="C421" t="s">
@@ -8607,10 +8622,10 @@
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="B422" s="5" t="s">
         <v>1001</v>
       </c>
       <c r="C422" t="s">
@@ -8618,10 +8633,10 @@
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="B423" s="5" t="s">
         <v>1002</v>
       </c>
       <c r="C423" t="s">
@@ -8629,10 +8644,10 @@
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A424" s="1" t="s">
+      <c r="A424" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="B424" s="5" t="s">
         <v>1003</v>
       </c>
       <c r="C424" t="s">
@@ -8640,10 +8655,10 @@
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="B425" s="5" t="s">
         <v>1004</v>
       </c>
       <c r="C425" t="s">
@@ -8651,10 +8666,10 @@
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="B426" s="5" t="s">
         <v>1005</v>
       </c>
       <c r="C426" t="s">
@@ -8662,10 +8677,10 @@
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B427" s="1" t="s">
+      <c r="B427" s="5" t="s">
         <v>1006</v>
       </c>
       <c r="C427" t="s">
@@ -8673,10 +8688,10 @@
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A428" s="1" t="s">
+      <c r="A428" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B428" s="1" t="s">
+      <c r="B428" s="5" t="s">
         <v>1007</v>
       </c>
       <c r="C428" t="s">
@@ -8684,10 +8699,10 @@
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B429" s="1" t="s">
+      <c r="B429" s="5" t="s">
         <v>1008</v>
       </c>
       <c r="C429" t="s">
@@ -8695,10 +8710,10 @@
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B430" s="1" t="s">
+      <c r="B430" s="5" t="s">
         <v>1009</v>
       </c>
       <c r="C430" t="s">
@@ -8706,10 +8721,10 @@
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="B431" s="5" t="s">
         <v>1010</v>
       </c>
       <c r="C431" t="s">
@@ -8717,10 +8732,10 @@
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="B432" s="5" t="s">
         <v>1011</v>
       </c>
       <c r="C432" t="s">
@@ -8728,10 +8743,10 @@
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B433" s="1" t="s">
+      <c r="B433" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="C433" t="s">
@@ -8739,10 +8754,10 @@
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="B434" s="5" t="s">
         <v>1013</v>
       </c>
       <c r="C434" t="s">
@@ -8750,10 +8765,10 @@
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B435" s="1" t="s">
+      <c r="B435" s="5" t="s">
         <v>1014</v>
       </c>
       <c r="C435" t="s">
@@ -8761,10 +8776,10 @@
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="B436" s="5" t="s">
         <v>1015</v>
       </c>
       <c r="C436" t="s">
@@ -8772,10 +8787,10 @@
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B437" s="1" t="s">
+      <c r="B437" s="5" t="s">
         <v>1016</v>
       </c>
       <c r="C437" t="s">
@@ -8783,10 +8798,10 @@
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B438" s="1" t="s">
+      <c r="B438" s="5" t="s">
         <v>1017</v>
       </c>
       <c r="C438" t="s">
@@ -8794,10 +8809,10 @@
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="B439" s="5" t="s">
         <v>1018</v>
       </c>
       <c r="C439" t="s">
@@ -8805,10 +8820,10 @@
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B440" s="1" t="s">
+      <c r="B440" s="5" t="s">
         <v>1019</v>
       </c>
       <c r="C440" t="s">
@@ -8816,10 +8831,10 @@
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B441" s="1" t="s">
+      <c r="B441" s="5" t="s">
         <v>1020</v>
       </c>
       <c r="C441" t="s">
@@ -8827,10 +8842,10 @@
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="B442" s="5" t="s">
         <v>1021</v>
       </c>
       <c r="C442" t="s">
@@ -8838,10 +8853,10 @@
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A443" s="1" t="s">
+      <c r="A443" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B443" s="1" t="s">
+      <c r="B443" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="C443" t="s">
@@ -8849,10 +8864,10 @@
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A444" s="1" t="s">
+      <c r="A444" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B444" s="1" t="s">
+      <c r="B444" s="5" t="s">
         <v>1023</v>
       </c>
       <c r="C444" t="s">
@@ -8860,10 +8875,10 @@
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A445" s="1" t="s">
+      <c r="A445" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="B445" s="5" t="s">
         <v>1024</v>
       </c>
       <c r="C445" t="s">
@@ -8871,10 +8886,10 @@
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A446" s="1" t="s">
+      <c r="A446" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="B446" s="5" t="s">
         <v>599</v>
       </c>
       <c r="C446" t="s">
@@ -8882,10 +8897,10 @@
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B447" s="1" t="s">
+      <c r="B447" s="5" t="s">
         <v>1025</v>
       </c>
       <c r="C447" t="s">
@@ -8893,10 +8908,10 @@
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A448" s="1" t="s">
+      <c r="A448" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B448" s="1" t="s">
+      <c r="B448" s="5" t="s">
         <v>1026</v>
       </c>
       <c r="C448" t="s">
@@ -8904,10 +8919,10 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" s="1" t="s">
+      <c r="A449" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B449" s="1" t="s">
+      <c r="B449" s="5" t="s">
         <v>1027</v>
       </c>
       <c r="C449" t="s">
@@ -8915,10 +8930,10 @@
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" s="1" t="s">
+      <c r="A450" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B450" s="1" t="s">
+      <c r="B450" s="5" t="s">
         <v>1028</v>
       </c>
       <c r="C450" t="s">
@@ -8926,10 +8941,10 @@
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A451" s="1" t="s">
+      <c r="A451" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B451" s="1" t="s">
+      <c r="B451" s="5" t="s">
         <v>897</v>
       </c>
       <c r="C451" t="s">
@@ -8937,10 +8952,10 @@
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A452" s="1" t="s">
+      <c r="A452" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="B452" s="5" t="s">
         <v>1029</v>
       </c>
       <c r="C452" t="s">
@@ -8948,10 +8963,10 @@
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B453" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="C453" t="s">
@@ -8959,10 +8974,10 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="B454" s="5" t="s">
         <v>1031</v>
       </c>
       <c r="C454" t="s">
@@ -8970,10 +8985,10 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="B455" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="C455" t="s">
@@ -8981,10 +8996,10 @@
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="B456" s="5" t="s">
         <v>1033</v>
       </c>
       <c r="C456" t="s">
@@ -8992,10 +9007,10 @@
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" s="1" t="s">
+      <c r="A457" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="B457" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="C457" t="s">
@@ -9003,10 +9018,10 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="1" t="s">
+      <c r="A458" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="B458" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="C458" t="s">
@@ -9014,10 +9029,10 @@
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="B459" s="5" t="s">
         <v>1036</v>
       </c>
       <c r="C459" t="s">
@@ -9025,10 +9040,10 @@
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B460" s="1" t="s">
+      <c r="B460" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="C460" t="s">
@@ -9036,10 +9051,10 @@
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="B461" s="5" t="s">
         <v>1038</v>
       </c>
       <c r="C461" t="s">
@@ -9047,10 +9062,10 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B462" s="1" t="s">
+      <c r="B462" s="5" t="s">
         <v>1039</v>
       </c>
       <c r="C462" t="s">
@@ -9058,10 +9073,10 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" s="1" t="s">
+      <c r="A463" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B463" s="1" t="s">
+      <c r="B463" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="C463" t="s">
@@ -9069,10 +9084,10 @@
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A464" s="1" t="s">
+      <c r="A464" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B464" s="1" t="s">
+      <c r="B464" s="5" t="s">
         <v>1041</v>
       </c>
       <c r="C464" t="s">
@@ -9080,10 +9095,10 @@
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465" s="1" t="s">
+      <c r="A465" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B465" s="1" t="s">
+      <c r="B465" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="C465" t="s">
@@ -9091,10 +9106,10 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" s="1" t="s">
+      <c r="A466" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="B466" s="5" t="s">
         <v>1043</v>
       </c>
       <c r="C466" t="s">
@@ -9102,10 +9117,10 @@
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467" s="1" t="s">
+      <c r="A467" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="B467" s="5" t="s">
         <v>1044</v>
       </c>
       <c r="C467" t="s">
@@ -9113,10 +9128,10 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A468" s="1" t="s">
+      <c r="A468" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="B468" s="5" t="s">
         <v>1045</v>
       </c>
       <c r="C468" t="s">
@@ -9124,10 +9139,10 @@
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469" s="1" t="s">
+      <c r="A469" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B469" s="1" t="s">
+      <c r="B469" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="C469" t="s">
@@ -9135,10 +9150,10 @@
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="B470" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="C470" t="s">
@@ -9146,10 +9161,10 @@
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="1" t="s">
+      <c r="A471" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B471" s="1" t="s">
+      <c r="B471" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="C471" t="s">
@@ -9157,10 +9172,10 @@
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="B472" s="5" t="s">
         <v>843</v>
       </c>
       <c r="C472" t="s">
@@ -9168,10 +9183,10 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B473" s="1" t="s">
+      <c r="B473" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="C473" t="s">
@@ -9179,10 +9194,10 @@
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A474" s="1" t="s">
+      <c r="A474" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="B474" s="5" t="s">
         <v>1050</v>
       </c>
       <c r="C474" t="s">
@@ -9190,10 +9205,10 @@
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A475" s="1" t="s">
+      <c r="A475" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="B475" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="C475" t="s">
@@ -9201,10 +9216,10 @@
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="B476" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="C476" t="s">
@@ -9212,10 +9227,10 @@
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="B477" s="5" t="s">
         <v>1053</v>
       </c>
       <c r="C477" t="s">
@@ -9223,10 +9238,10 @@
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478" s="1" t="s">
+      <c r="A478" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="B478" s="5" t="s">
         <v>1054</v>
       </c>
       <c r="C478" t="s">
@@ -9234,10 +9249,10 @@
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="B479" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="C479" t="s">
@@ -9245,10 +9260,10 @@
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="B480" s="5" t="s">
         <v>1056</v>
       </c>
       <c r="C480" t="s">
@@ -9256,10 +9271,10 @@
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B481" s="1" t="s">
+      <c r="B481" s="5" t="s">
         <v>1057</v>
       </c>
       <c r="C481" t="s">
@@ -9267,10 +9282,10 @@
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="B482" s="5" t="s">
         <v>936</v>
       </c>
       <c r="C482" t="s">
@@ -9278,10 +9293,10 @@
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B483" s="1" t="s">
+      <c r="B483" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="C483" t="s">
@@ -9289,10 +9304,10 @@
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="B484" s="5" t="s">
         <v>1059</v>
       </c>
       <c r="C484" t="s">
@@ -9300,10 +9315,10 @@
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B485" s="1" t="s">
+      <c r="B485" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="C485" t="s">
@@ -9311,10 +9326,10 @@
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="B486" s="5" t="s">
         <v>612</v>
       </c>
       <c r="C486" t="s">
@@ -9322,10 +9337,10 @@
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B487" s="1" t="s">
+      <c r="B487" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="C487" t="s">
@@ -9333,10 +9348,10 @@
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="B488" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="C488" t="s">
@@ -9344,10 +9359,10 @@
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B489" s="1" t="s">
+      <c r="B489" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="C489" t="s">
@@ -9355,10 +9370,10 @@
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B490" s="1" t="s">
+      <c r="B490" s="5" t="s">
         <v>1064</v>
       </c>
       <c r="C490" t="s">
@@ -9366,10 +9381,10 @@
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B491" s="1" t="s">
+      <c r="B491" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="C491" t="s">
@@ -9377,10 +9392,10 @@
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B492" s="1" t="s">
+      <c r="B492" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="C492" t="s">
@@ -9388,10 +9403,10 @@
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B493" s="1" t="s">
+      <c r="B493" s="5" t="s">
         <v>1067</v>
       </c>
       <c r="C493" t="s">
@@ -9399,10 +9414,10 @@
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B494" s="1" t="s">
+      <c r="B494" s="5" t="s">
         <v>1068</v>
       </c>
       <c r="C494" t="s">
@@ -9410,10 +9425,10 @@
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="B495" s="5" t="s">
         <v>1069</v>
       </c>
       <c r="C495" t="s">
@@ -9421,10 +9436,10 @@
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A496" s="1" t="s">
+      <c r="A496" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B496" s="1" t="s">
+      <c r="B496" s="5" t="s">
         <v>1070</v>
       </c>
       <c r="C496" t="s">
@@ -9432,10 +9447,10 @@
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B497" s="1" t="s">
+      <c r="B497" s="5" t="s">
         <v>1071</v>
       </c>
       <c r="C497" t="s">
@@ -9443,10 +9458,10 @@
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B498" s="1" t="s">
+      <c r="B498" s="5" t="s">
         <v>1072</v>
       </c>
       <c r="C498" t="s">
@@ -9454,10 +9469,10 @@
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B499" s="1" t="s">
+      <c r="B499" s="5" t="s">
         <v>1073</v>
       </c>
       <c r="C499" t="s">
@@ -9465,10 +9480,10 @@
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B500" s="1" t="s">
+      <c r="B500" s="5" t="s">
         <v>1074</v>
       </c>
       <c r="C500" t="s">
@@ -9476,10 +9491,10 @@
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B501" s="1" t="s">
+      <c r="B501" s="5" t="s">
         <v>1075</v>
       </c>
       <c r="C501" t="s">
@@ -9487,10 +9502,10 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A502" s="1" t="s">
+      <c r="A502" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B502" s="1" t="s">
+      <c r="B502" s="5" t="s">
         <v>1076</v>
       </c>
       <c r="C502" t="s">
@@ -9498,10 +9513,10 @@
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" s="1" t="s">
+      <c r="A503" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B503" s="1" t="s">
+      <c r="B503" s="5" t="s">
         <v>1077</v>
       </c>
       <c r="C503" t="s">
@@ -9509,10 +9524,10 @@
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" s="1" t="s">
+      <c r="A504" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B504" s="1" t="s">
+      <c r="B504" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="C504" t="s">
@@ -9520,10 +9535,10 @@
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B505" s="1" t="s">
+      <c r="B505" s="5" t="s">
         <v>1079</v>
       </c>
       <c r="C505" t="s">
@@ -9531,10 +9546,10 @@
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A506" s="1" t="s">
+      <c r="A506" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B506" s="1" t="s">
+      <c r="B506" s="5" t="s">
         <v>1080</v>
       </c>
       <c r="C506" t="s">
@@ -9542,10 +9557,10 @@
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" s="1" t="s">
+      <c r="A507" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="B507" s="5" t="s">
         <v>1081</v>
       </c>
       <c r="C507" t="s">
@@ -9553,10 +9568,10 @@
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" s="1" t="s">
+      <c r="A508" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B508" s="1" t="s">
+      <c r="B508" s="5" t="s">
         <v>1082</v>
       </c>
       <c r="C508" t="s">
@@ -9564,10 +9579,10 @@
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509" s="1" t="s">
+      <c r="A509" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B509" s="1" t="s">
+      <c r="B509" s="5" t="s">
         <v>1083</v>
       </c>
       <c r="C509" t="s">
@@ -9575,10 +9590,10 @@
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510" s="1" t="s">
+      <c r="A510" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B510" s="1" t="s">
+      <c r="B510" s="5" t="s">
         <v>1084</v>
       </c>
       <c r="C510" t="s">
@@ -9586,10 +9601,10 @@
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511" s="1" t="s">
+      <c r="A511" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="B511" s="5" t="s">
         <v>1085</v>
       </c>
       <c r="C511" t="s">
@@ -9597,10 +9612,10 @@
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A512" s="1" t="s">
+      <c r="A512" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B512" s="1" t="s">
+      <c r="B512" s="5" t="s">
         <v>1086</v>
       </c>
       <c r="C512" t="s">
@@ -9608,10 +9623,10 @@
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A513" s="1" t="s">
+      <c r="A513" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B513" s="5" t="s">
         <v>1087</v>
       </c>
       <c r="C513" t="s">
@@ -9619,10 +9634,10 @@
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A514" s="1" t="s">
+      <c r="A514" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="B514" s="5" t="s">
         <v>1088</v>
       </c>
       <c r="C514" t="s">
@@ -9630,10 +9645,10 @@
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A515" s="1" t="s">
+      <c r="A515" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B515" s="1" t="s">
+      <c r="B515" s="5" t="s">
         <v>1089</v>
       </c>
       <c r="C515" t="s">
@@ -9641,10 +9656,10 @@
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A516" s="1" t="s">
+      <c r="A516" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B516" s="1" t="s">
+      <c r="B516" s="5" t="s">
         <v>1090</v>
       </c>
       <c r="C516" t="s">
@@ -9652,10 +9667,10 @@
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A517" s="1" t="s">
+      <c r="A517" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="B517" s="5" t="s">
         <v>1091</v>
       </c>
       <c r="C517" t="s">
@@ -9663,10 +9678,10 @@
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A518" s="1" t="s">
+      <c r="A518" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B518" s="5" t="s">
         <v>1092</v>
       </c>
       <c r="C518" t="s">
@@ -9674,10 +9689,10 @@
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A519" s="1" t="s">
+      <c r="A519" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B519" s="1" t="s">
+      <c r="B519" s="5" t="s">
         <v>1093</v>
       </c>
       <c r="C519" t="s">
@@ -9685,10 +9700,10 @@
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A520" s="1" t="s">
+      <c r="A520" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B520" s="1" t="s">
+      <c r="B520" s="5" t="s">
         <v>1094</v>
       </c>
       <c r="C520" t="s">
@@ -9696,10 +9711,10 @@
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A521" s="1" t="s">
+      <c r="A521" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B521" s="1" t="s">
+      <c r="B521" s="5" t="s">
         <v>1095</v>
       </c>
       <c r="C521" t="s">
@@ -9707,10 +9722,10 @@
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A522" s="1" t="s">
+      <c r="A522" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B522" s="1" t="s">
+      <c r="B522" s="5" t="s">
         <v>1096</v>
       </c>
       <c r="C522" t="s">
@@ -9718,10 +9733,10 @@
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A523" s="1" t="s">
+      <c r="A523" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B523" s="1" t="s">
+      <c r="B523" s="5" t="s">
         <v>1097</v>
       </c>
       <c r="C523" t="s">
@@ -9729,10 +9744,10 @@
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A524" s="1" t="s">
+      <c r="A524" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B524" s="1" t="s">
+      <c r="B524" s="5" t="s">
         <v>1098</v>
       </c>
       <c r="C524" t="s">
@@ -9740,10 +9755,10 @@
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A525" s="1" t="s">
+      <c r="A525" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B525" s="1" t="s">
+      <c r="B525" s="5" t="s">
         <v>1099</v>
       </c>
       <c r="C525" t="s">
@@ -9751,10 +9766,10 @@
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A526" s="1" t="s">
+      <c r="A526" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B526" s="1" t="s">
+      <c r="B526" s="5" t="s">
         <v>1100</v>
       </c>
       <c r="C526" t="s">
@@ -9762,10 +9777,10 @@
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A527" s="1" t="s">
+      <c r="A527" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B527" s="1" t="s">
+      <c r="B527" s="5" t="s">
         <v>1101</v>
       </c>
       <c r="C527" t="s">
@@ -9773,10 +9788,10 @@
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A528" s="1" t="s">
+      <c r="A528" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B528" s="1" t="s">
+      <c r="B528" s="5" t="s">
         <v>1102</v>
       </c>
       <c r="C528" t="s">
@@ -9784,10 +9799,10 @@
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A529" s="1" t="s">
+      <c r="A529" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B529" s="1" t="s">
+      <c r="B529" s="5" t="s">
         <v>1103</v>
       </c>
       <c r="C529" t="s">
@@ -9795,10 +9810,10 @@
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A530" s="1" t="s">
+      <c r="A530" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B530" s="1" t="s">
+      <c r="B530" s="5" t="s">
         <v>1104</v>
       </c>
       <c r="C530" t="s">
@@ -9806,10 +9821,10 @@
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A531" s="1" t="s">
+      <c r="A531" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="B531" s="5" t="s">
         <v>1105</v>
       </c>
       <c r="C531" t="s">
@@ -9817,10 +9832,10 @@
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A532" s="1" t="s">
+      <c r="A532" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B532" s="1" t="s">
+      <c r="B532" s="5" t="s">
         <v>1106</v>
       </c>
       <c r="C532" t="s">
@@ -9828,10 +9843,10 @@
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A533" s="1" t="s">
+      <c r="A533" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B533" s="1" t="s">
+      <c r="B533" s="5" t="s">
         <v>1107</v>
       </c>
       <c r="C533" t="s">
@@ -9839,10 +9854,10 @@
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A534" s="1" t="s">
+      <c r="A534" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="B534" s="5" t="s">
         <v>1108</v>
       </c>
       <c r="C534" t="s">
@@ -9850,10 +9865,10 @@
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A535" s="1" t="s">
+      <c r="A535" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B535" s="1" t="s">
+      <c r="B535" s="5" t="s">
         <v>1109</v>
       </c>
       <c r="C535" t="s">
@@ -9861,10 +9876,10 @@
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A536" s="1" t="s">
+      <c r="A536" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B536" s="1" t="s">
+      <c r="B536" s="5" t="s">
         <v>1110</v>
       </c>
       <c r="C536" t="s">
@@ -9872,10 +9887,10 @@
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A537" s="1" t="s">
+      <c r="A537" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B537" s="1" t="s">
+      <c r="B537" s="5" t="s">
         <v>1111</v>
       </c>
       <c r="C537" t="s">
@@ -9883,10 +9898,10 @@
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A538" s="1" t="s">
+      <c r="A538" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="B538" s="5" t="s">
         <v>1112</v>
       </c>
       <c r="C538" t="s">
@@ -9894,10 +9909,10 @@
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A539" s="1" t="s">
+      <c r="A539" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B539" s="1" t="s">
+      <c r="B539" s="5" t="s">
         <v>938</v>
       </c>
       <c r="C539" t="s">
@@ -9905,10 +9920,10 @@
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A540" s="1" t="s">
+      <c r="A540" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B540" s="1" t="s">
+      <c r="B540" s="5" t="s">
         <v>1113</v>
       </c>
       <c r="C540" t="s">
@@ -9916,10 +9931,10 @@
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A541" s="1" t="s">
+      <c r="A541" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B541" s="1" t="s">
+      <c r="B541" s="5" t="s">
         <v>1114</v>
       </c>
       <c r="C541" t="s">
@@ -9927,10 +9942,10 @@
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A542" s="1" t="s">
+      <c r="A542" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B542" s="1" t="s">
+      <c r="B542" s="5" t="s">
         <v>1115</v>
       </c>
       <c r="C542" t="s">
@@ -9938,10 +9953,10 @@
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A543" s="1" t="s">
+      <c r="A543" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B543" s="1" t="s">
+      <c r="B543" s="5" t="s">
         <v>1116</v>
       </c>
       <c r="C543" t="s">
@@ -9949,10 +9964,10 @@
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A544" s="1" t="s">
+      <c r="A544" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B544" s="1" t="s">
+      <c r="B544" s="5" t="s">
         <v>1117</v>
       </c>
       <c r="C544" t="s">
@@ -9960,10 +9975,10 @@
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A545" s="1" t="s">
+      <c r="A545" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B545" s="1" t="s">
+      <c r="B545" s="5" t="s">
         <v>1118</v>
       </c>
       <c r="C545" t="s">
@@ -9971,10 +9986,10 @@
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A546" s="1" t="s">
+      <c r="A546" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B546" s="1" t="s">
+      <c r="B546" s="5" t="s">
         <v>1119</v>
       </c>
       <c r="C546" t="s">
@@ -9982,10 +9997,10 @@
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A547" s="1" t="s">
+      <c r="A547" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B547" s="1" t="s">
+      <c r="B547" s="5" t="s">
         <v>1120</v>
       </c>
       <c r="C547" t="s">
@@ -9993,10 +10008,10 @@
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A548" s="1" t="s">
+      <c r="A548" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B548" s="1" t="s">
+      <c r="B548" s="5" t="s">
         <v>1121</v>
       </c>
       <c r="C548" t="s">
@@ -10004,10 +10019,10 @@
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A549" s="1" t="s">
+      <c r="A549" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B549" s="1" t="s">
+      <c r="B549" s="5" t="s">
         <v>709</v>
       </c>
       <c r="C549" t="s">
@@ -10015,10 +10030,10 @@
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A550" s="1" t="s">
+      <c r="A550" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B550" s="1" t="s">
+      <c r="B550" s="5" t="s">
         <v>1122</v>
       </c>
       <c r="C550" t="s">
@@ -10026,10 +10041,10 @@
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A551" s="1" t="s">
+      <c r="A551" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B551" s="1" t="s">
+      <c r="B551" s="5" t="s">
         <v>1123</v>
       </c>
       <c r="C551" t="s">
@@ -10037,10 +10052,10 @@
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A552" s="1" t="s">
+      <c r="A552" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B552" s="1" t="s">
+      <c r="B552" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="C552" t="s">
@@ -10048,10 +10063,10 @@
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A553" s="1" t="s">
+      <c r="A553" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B553" s="1" t="s">
+      <c r="B553" s="5" t="s">
         <v>1125</v>
       </c>
       <c r="C553" t="s">
@@ -10059,10 +10074,10 @@
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A554" s="1" t="s">
+      <c r="A554" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B554" s="1" t="s">
+      <c r="B554" s="5" t="s">
         <v>1126</v>
       </c>
       <c r="C554" t="s">
@@ -10070,10 +10085,10 @@
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A555" s="1" t="s">
+      <c r="A555" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B555" s="1" t="s">
+      <c r="B555" s="5" t="s">
         <v>1127</v>
       </c>
       <c r="C555" t="s">
@@ -10081,10 +10096,10 @@
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A556" s="1" t="s">
+      <c r="A556" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B556" s="1" t="s">
+      <c r="B556" s="5" t="s">
         <v>1128</v>
       </c>
       <c r="C556" t="s">
@@ -10092,10 +10107,10 @@
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A557" s="1" t="s">
+      <c r="A557" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B557" s="1" t="s">
+      <c r="B557" s="5" t="s">
         <v>1129</v>
       </c>
       <c r="C557" t="s">
@@ -10103,10 +10118,10 @@
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A558" s="1" t="s">
+      <c r="A558" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B558" s="1" t="s">
+      <c r="B558" s="5" t="s">
         <v>1130</v>
       </c>
       <c r="C558" t="s">
@@ -10114,10 +10129,10 @@
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A559" s="1" t="s">
+      <c r="A559" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B559" s="1" t="s">
+      <c r="B559" s="5" t="s">
         <v>1131</v>
       </c>
       <c r="C559" t="s">
@@ -10125,10 +10140,10 @@
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A560" s="1" t="s">
+      <c r="A560" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B560" s="1" t="s">
+      <c r="B560" s="5" t="s">
         <v>560</v>
       </c>
       <c r="C560" t="s">
@@ -10136,10 +10151,10 @@
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A561" s="1" t="s">
+      <c r="A561" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B561" s="1" t="s">
+      <c r="B561" s="5" t="s">
         <v>1132</v>
       </c>
       <c r="C561" t="s">
@@ -10147,10 +10162,10 @@
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A562" s="1" t="s">
+      <c r="A562" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B562" s="1" t="s">
+      <c r="B562" s="5" t="s">
         <v>1133</v>
       </c>
       <c r="C562" t="s">
@@ -10158,10 +10173,10 @@
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A563" s="1" t="s">
+      <c r="A563" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B563" s="1" t="s">
+      <c r="B563" s="5" t="s">
         <v>1134</v>
       </c>
       <c r="C563" t="s">
@@ -10169,10 +10184,10 @@
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A564" s="1" t="s">
+      <c r="A564" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B564" s="1" t="s">
+      <c r="B564" s="5" t="s">
         <v>795</v>
       </c>
       <c r="C564" t="s">
@@ -10180,10 +10195,10 @@
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A565" s="1" t="s">
+      <c r="A565" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B565" s="1" t="s">
+      <c r="B565" s="5" t="s">
         <v>1135</v>
       </c>
       <c r="C565" t="s">
@@ -10191,10 +10206,10 @@
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A566" s="1" t="s">
+      <c r="A566" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B566" s="1" t="s">
+      <c r="B566" s="5" t="s">
         <v>1136</v>
       </c>
       <c r="C566" t="s">
@@ -10202,10 +10217,10 @@
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A567" s="1" t="s">
+      <c r="A567" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B567" s="1" t="s">
+      <c r="B567" s="5" t="s">
         <v>1137</v>
       </c>
       <c r="C567" t="s">
@@ -10213,10 +10228,10 @@
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A568" s="1" t="s">
+      <c r="A568" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B568" s="1" t="s">
+      <c r="B568" s="5" t="s">
         <v>1138</v>
       </c>
       <c r="C568" t="s">
@@ -10224,10 +10239,10 @@
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A569" s="1" t="s">
+      <c r="A569" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B569" s="1" t="s">
+      <c r="B569" s="5" t="s">
         <v>1139</v>
       </c>
       <c r="C569" t="s">
@@ -10235,10 +10250,10 @@
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A570" s="1" t="s">
+      <c r="A570" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B570" s="1" t="s">
+      <c r="B570" s="5" t="s">
         <v>1140</v>
       </c>
       <c r="C570" t="s">
@@ -10246,10 +10261,10 @@
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A571" s="1" t="s">
+      <c r="A571" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B571" s="1" t="s">
+      <c r="B571" s="5" t="s">
         <v>1141</v>
       </c>
       <c r="C571" t="s">
@@ -10257,10 +10272,10 @@
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A572" s="1" t="s">
+      <c r="A572" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B572" s="1" t="s">
+      <c r="B572" s="5" t="s">
         <v>1142</v>
       </c>
       <c r="C572" t="s">
@@ -10268,10 +10283,10 @@
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A573" s="1" t="s">
+      <c r="A573" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B573" s="1" t="s">
+      <c r="B573" s="5" t="s">
         <v>1143</v>
       </c>
       <c r="C573" t="s">
@@ -10279,10 +10294,10 @@
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A574" s="1" t="s">
+      <c r="A574" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B574" s="1" t="s">
+      <c r="B574" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="C574" t="s">
@@ -10290,10 +10305,10 @@
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A575" s="1" t="s">
+      <c r="A575" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B575" s="1" t="s">
+      <c r="B575" s="5" t="s">
         <v>1145</v>
       </c>
       <c r="C575" t="s">
@@ -10301,171 +10316,169 @@
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A576" s="1" t="s">
+      <c r="A576" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B576" s="1" t="s">
+      <c r="B576" s="5" t="s">
         <v>1146</v>
       </c>
       <c r="C576" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A577" s="1" t="s">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B577" s="1" t="s">
+      <c r="B577" s="5" t="s">
         <v>1147</v>
       </c>
       <c r="C577" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A578" s="1" t="s">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B578" s="1" t="s">
+      <c r="B578" s="5" t="s">
         <v>1148</v>
       </c>
       <c r="C578" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A579" s="1" t="s">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B579" s="1" t="s">
+      <c r="B579" s="5" t="s">
         <v>1149</v>
       </c>
       <c r="C579" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A580" s="1" t="s">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B580" s="1" t="s">
+      <c r="B580" s="5" t="s">
         <v>1150</v>
       </c>
       <c r="C580" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A581" s="1" t="s">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B581" s="1" t="s">
+      <c r="B581" s="5" t="s">
         <v>1151</v>
       </c>
       <c r="C581" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A582" s="1" t="s">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B582" s="1" t="s">
+      <c r="B582" s="5" t="s">
         <v>880</v>
       </c>
       <c r="C582" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A583" s="1" t="s">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B583" s="1" t="s">
+      <c r="B583" s="5" t="s">
         <v>1152</v>
       </c>
       <c r="C583" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A584" s="1" t="s">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B584" s="1" t="s">
+      <c r="B584" s="5" t="s">
         <v>1153</v>
       </c>
       <c r="C584" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A585" s="1" t="s">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B585" s="1" t="s">
+      <c r="B585" s="5" t="s">
         <v>1154</v>
       </c>
       <c r="C585" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A586" s="1" t="s">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B586" s="1" t="s">
+      <c r="B586" s="5" t="s">
         <v>1155</v>
       </c>
       <c r="C586" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A587" s="1" t="s">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A587" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B587" s="1" t="s">
+      <c r="B587" s="5" t="s">
         <v>1156</v>
       </c>
       <c r="C587" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A588" s="1" t="s">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B588" s="1" t="s">
+      <c r="B588" s="5" t="s">
         <v>1157</v>
       </c>
       <c r="C588" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A589" s="1" t="s">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A589" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B589" s="1" t="s">
+      <c r="B589" s="5" t="s">
         <v>1158</v>
       </c>
       <c r="C589" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A590" s="2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A590" s="3">
         <v>29076</v>
       </c>
-      <c r="B590" s="4" t="e">
-        <f>RIGHT(#REF!,4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C590" s="3" t="s">
+      <c r="B590" s="6">
+        <v>3972</v>
+      </c>
+      <c r="C590" t="s">
         <v>593</v>
       </c>
-      <c r="D590" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
